--- a/Base/Teams/Football Team/Players Data.xlsx
+++ b/Base/Teams/Football Team/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Football Team/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_A85EC9CC8379CF7EC1702737F5EA4577913D19A1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA518AB4-39A2-4CF6-86D7-507BE66E4556}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -81,9 +87,6 @@
   </si>
   <si>
     <t>D.Milne</t>
-  </si>
-  <si>
-    <t>L.Thomas</t>
   </si>
   <si>
     <t>J.Bates</t>
@@ -95,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,13 +147,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -159,6 +176,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -205,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,9 +262,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,6 +314,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,14 +507,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -490,7 +551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -510,7 +571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -530,7 +591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -550,7 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -570,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -590,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -610,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -630,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -656,14 +717,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -712,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -738,7 +801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -764,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -790,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -816,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -842,7 +905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -868,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -894,7 +957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -920,7 +983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -946,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -954,25 +1017,25 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -980,49 +1043,26 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14">
         <v>6</v>
       </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Base/Teams/Football Team/Players Data.xlsx
+++ b/Base/Teams/Football Team/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Football Team/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_A85EC9CC8379CF7EC1702737F5EA4577913D19A1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA518AB4-39A2-4CF6-86D7-507BE66E4556}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -63,6 +57,12 @@
   </si>
   <si>
     <t>D.Carter</t>
+  </si>
+  <si>
+    <t>W.Smallwood</t>
+  </si>
+  <si>
+    <t>L.Thomas</t>
   </si>
   <si>
     <t>Short Target</t>
@@ -98,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,27 +147,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -176,14 +162,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -230,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,27 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,24 +274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,14 +449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -545,13 +487,13 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -559,19 +501,19 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D3">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -591,7 +533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -602,7 +544,7 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -611,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -631,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -639,19 +581,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -671,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -691,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -709,6 +651,46 @@
       </c>
       <c r="F10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -717,39 +699,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -757,10 +737,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -769,13 +749,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -801,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -827,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -835,13 +815,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -853,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -861,11 +841,11 @@
         <v>10</v>
       </c>
       <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
@@ -879,18 +859,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>9</v>
@@ -905,7 +885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -913,10 +893,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -925,13 +905,13 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -957,7 +937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -965,10 +945,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>11</v>
@@ -983,12 +963,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1009,18 +989,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1035,34 +1015,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
         <v>20</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>17</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>7</v>
       </c>
-      <c r="H13">
+      <c r="H15">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Base/Teams/Football Team/Players Data.xlsx
+++ b/Base/Teams/Football Team/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -35,6 +35,9 @@
     <t>T.Heinicke</t>
   </si>
   <si>
+    <t>K.Allen</t>
+  </si>
+  <si>
     <t>A.Gibson</t>
   </si>
   <si>
@@ -42,6 +45,9 @@
   </si>
   <si>
     <t>J.Patterson</t>
+  </si>
+  <si>
+    <t>J.Williams</t>
   </si>
   <si>
     <t>T.McLaurin</t>
@@ -450,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>13</v>
@@ -501,16 +507,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -521,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -541,16 +547,16 @@
         <v>8</v>
       </c>
       <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
         <v>18</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
       <c r="E5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -561,16 +567,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -581,16 +587,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -604,13 +610,13 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -621,13 +627,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -641,10 +647,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -661,13 +667,13 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -681,15 +687,55 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
     </row>
@@ -700,7 +746,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -711,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -734,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -760,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>56</v>
@@ -786,13 +832,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -812,25 +858,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -838,25 +884,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -864,25 +910,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -890,25 +936,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -916,16 +962,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -942,25 +988,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -968,25 +1014,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -994,22 +1040,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1020,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1029,16 +1075,16 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1046,25 +1092,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1072,24 +1118,50 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>7</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>6</v>
       </c>
     </row>

--- a/Base/Teams/Football Team/Players Data.xlsx
+++ b/Base/Teams/Football Team/Players Data.xlsx
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -567,16 +567,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -687,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -783,10 +783,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -795,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
         <v>4</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -887,16 +887,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -939,10 +939,10 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -991,10 +991,10 @@
         <v>14</v>
       </c>
       <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>9</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -1017,10 +1017,10 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>13</v>
@@ -1043,10 +1043,10 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -1127,10 +1127,10 @@
         <v>12</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>6</v>

--- a/Base/Teams/Football Team/Players Data.xlsx
+++ b/Base/Teams/Football Team/Players Data.xlsx
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>31</v>
@@ -567,10 +567,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -590,10 +590,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -687,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -783,22 +783,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
         <v>5</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -861,10 +861,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -887,22 +887,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D6">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>15</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -939,10 +939,10 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -965,16 +965,16 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -991,7 +991,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1017,10 +1017,10 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>13</v>
@@ -1043,10 +1043,10 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -1121,22 +1121,22 @@
         <v>26</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1147,10 +1147,10 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>

--- a/Base/Teams/Football Team/Players Data.xlsx
+++ b/Base/Teams/Football Team/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Football Team/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_E300311040739E2FCA847896F6EA4577E1329159" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD58AFC8-7D5E-4D81-808D-63A5827E1010}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -104,8 +110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +174,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -214,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,9 +260,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,6 +312,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,14 +505,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,7 +551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -519,12 +571,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>135</v>
@@ -539,12 +591,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -559,12 +611,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -579,164 +631,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
       <c r="D11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -745,14 +737,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -801,7 +793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -827,7 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -853,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -879,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -905,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -931,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -957,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -983,7 +975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1009,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1035,7 +1027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1061,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1087,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1113,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1139,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Base/Teams/Football Team/Players Data.xlsx
+++ b/Base/Teams/Football Team/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Football Team/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_E300311040739E2FCA847896F6EA4577E1329159" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD58AFC8-7D5E-4D81-808D-63A5827E1010}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -44,12 +38,6 @@
     <t>K.Allen</t>
   </si>
   <si>
-    <t>A.Gibson</t>
-  </si>
-  <si>
-    <t>J.McKissic</t>
-  </si>
-  <si>
     <t>J.Patterson</t>
   </si>
   <si>
@@ -71,34 +59,34 @@
     <t>D.Carter</t>
   </si>
   <si>
+    <t>D.Milne</t>
+  </si>
+  <si>
     <t>W.Smallwood</t>
   </si>
   <si>
+    <t>Short Target</t>
+  </si>
+  <si>
+    <t>Short Comp</t>
+  </si>
+  <si>
+    <t>Deep Target</t>
+  </si>
+  <si>
+    <t>Deep Comp</t>
+  </si>
+  <si>
+    <t>RZ Target</t>
+  </si>
+  <si>
+    <t>RZ Comp</t>
+  </si>
+  <si>
+    <t>A.Humphries</t>
+  </si>
+  <si>
     <t>L.Thomas</t>
-  </si>
-  <si>
-    <t>Short Target</t>
-  </si>
-  <si>
-    <t>Short Comp</t>
-  </si>
-  <si>
-    <t>Deep Target</t>
-  </si>
-  <si>
-    <t>Deep Comp</t>
-  </si>
-  <si>
-    <t>RZ Target</t>
-  </si>
-  <si>
-    <t>RZ Comp</t>
-  </si>
-  <si>
-    <t>A.Humphries</t>
-  </si>
-  <si>
-    <t>D.Milne</t>
   </si>
   <si>
     <t>J.Bates</t>
@@ -110,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,14 +162,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -228,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,27 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,24 +274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,16 +449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -539,10 +481,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>13</v>
@@ -551,7 +493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -571,164 +513,184 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>29</v>
-      </c>
-      <c r="D6">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -737,37 +699,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -775,25 +737,25 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -801,25 +763,25 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -827,25 +789,25 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -853,10 +815,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -865,91 +827,91 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
         <v>9</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>4</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -957,25 +919,25 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -989,19 +951,19 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
       <c r="H10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1009,151 +971,99 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-      <c r="H16">
         <v>6</v>
       </c>
     </row>
